--- a/meta-2022.xlsx
+++ b/meta-2022.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desenvolvimento\Projetos\Innovation\innovation-etl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0616FD4-BD9C-4CD3-B732-84542F9C757C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41B0FF-2C69-4580-9C66-AABBEA6C6A0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7159B005-A463-4E5E-A38D-2CE497116AA0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{7159B005-A463-4E5E-A38D-2CE497116AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feriados" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>ano_meta</t>
   </si>
@@ -34,6 +35,60 @@
   </si>
   <si>
     <t>mes_meta</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Ano Novo</t>
+  </si>
+  <si>
+    <t>Carnaval</t>
+  </si>
+  <si>
+    <t>Sexta-Feira Santa</t>
+  </si>
+  <si>
+    <t>Dia de Tiradentes</t>
+  </si>
+  <si>
+    <t>Dia do Trabalho</t>
+  </si>
+  <si>
+    <t>Corpus Christi</t>
+  </si>
+  <si>
+    <t>Dia de São João</t>
+  </si>
+  <si>
+    <t>Fundação do Estado da Paraíba</t>
+  </si>
+  <si>
+    <t>Independência do Brasil</t>
+  </si>
+  <si>
+    <t>Nossa Senhora Aparecida</t>
+  </si>
+  <si>
+    <t>Dia do Professor</t>
+  </si>
+  <si>
+    <t>Dia do Servidor Público</t>
+  </si>
+  <si>
+    <t>Dia de Finados</t>
+  </si>
+  <si>
+    <t>Proclamação da República</t>
+  </si>
+  <si>
+    <t>Nossa Senhora da Conceição</t>
+  </si>
+  <si>
+    <t>Natal</t>
   </si>
 </sst>
 </file>
@@ -69,9 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72C4D2F-2556-47AF-B539-8A3C6A5A0CE9}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -676,4 +733,336 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13031874-3707-49BF-B583-62B76F7C8EEC}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44728</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44846</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44867</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44903</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44920</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/meta-2022.xlsx
+++ b/meta-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desenvolvimento\Projetos\Innovation\innovation-etl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41B0FF-2C69-4580-9C66-AABBEA6C6A0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8D2FDF-CD05-4950-BF80-3CA17629F341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{7159B005-A463-4E5E-A38D-2CE497116AA0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7159B005-A463-4E5E-A38D-2CE497116AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72C4D2F-2556-47AF-B539-8A3C6A5A0CE9}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13031874-3707-49BF-B583-62B76F7C8EEC}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
